--- a/Excel/PillConfig.xlsx
+++ b/Excel/PillConfig.xlsx
@@ -61,24 +61,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>StartLevel</t>
-  </si>
-  <si>
-    <t>EndLevel</t>
-  </si>
-  <si>
-    <t>AttrIdList</t>
-  </si>
-  <si>
-    <t>AttrRiseList</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>AttrId</t>
+  </si>
+  <si>
+    <t>AttrValue</t>
+  </si>
+  <si>
+    <t>AttrRise</t>
   </si>
   <si>
     <t>FeeRise</t>
@@ -93,82 +93,58 @@
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>手太阴</t>
-  </si>
-  <si>
-    <t>攻击、防御、血量、增伤、爆伤、幸运、</t>
-  </si>
-  <si>
-    <t>手阳明</t>
-  </si>
-  <si>
-    <t>足阳明</t>
-  </si>
-  <si>
-    <t>足太阴</t>
-  </si>
-  <si>
-    <t>手少阴</t>
-  </si>
-  <si>
-    <t>手太阳</t>
-  </si>
-  <si>
-    <t>足太阳</t>
-  </si>
-  <si>
-    <t>1000000000000000</t>
-  </si>
-  <si>
-    <t>100000000000000</t>
-  </si>
-  <si>
-    <t>足少阴</t>
-  </si>
-  <si>
-    <t>10000000000000000</t>
-  </si>
-  <si>
-    <t>手厥阴</t>
-  </si>
-  <si>
-    <t>手少阳</t>
-  </si>
-  <si>
-    <t>足少阳</t>
-  </si>
-  <si>
-    <t>足厥阴</t>
-  </si>
-  <si>
-    <t>任脉</t>
-  </si>
-  <si>
-    <t>督脉</t>
-  </si>
-  <si>
-    <t>冲脉</t>
-  </si>
-  <si>
-    <t>带脉</t>
-  </si>
-  <si>
-    <t>阴跷脉</t>
-  </si>
-  <si>
-    <t>阳跷脉</t>
-  </si>
-  <si>
-    <t>阴维脉</t>
-  </si>
-  <si>
-    <t>阳维脉</t>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>物攻</t>
+  </si>
+  <si>
+    <t>法攻</t>
+  </si>
+  <si>
+    <t>道攻</t>
+  </si>
+  <si>
+    <t>幸运</t>
+  </si>
+  <si>
+    <t>防御倍率</t>
+  </si>
+  <si>
+    <t>增伤</t>
+  </si>
+  <si>
+    <t>生命倍率</t>
+  </si>
+  <si>
+    <t>物伤加成</t>
+  </si>
+  <si>
+    <t>魔伤加成</t>
+  </si>
+  <si>
+    <t>道伤加成</t>
+  </si>
+  <si>
+    <t>物攻倍率</t>
+  </si>
+  <si>
+    <t>魔攻倍率</t>
+  </si>
+  <si>
+    <t>道攻倍率</t>
+  </si>
+  <si>
+    <t>攻击倍率</t>
+  </si>
+  <si>
+    <t>增伤倍率</t>
   </si>
 </sst>
 </file>
@@ -181,7 +157,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,12 +174,6 @@
       <b/>
       <sz val="9"/>
       <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF333333"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -351,12 +321,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -686,149 +656,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1148,10 +1113,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1159,9 +1124,11 @@
     <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="2" customWidth="1"/>
-    <col min="8" max="9" width="26.625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="12.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.625" style="2" customWidth="1"/>
     <col min="10" max="10" width="34.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="30.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.125" style="2" customWidth="1"/>
@@ -1172,6 +1139,7 @@
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1181,6 +1149,7 @@
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:13">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1211,10 +1180,10 @@
       <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="6"/>
+      <c r="K3" s="4"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
@@ -1242,8 +1211,8 @@
       <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
@@ -1254,7 +1223,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
@@ -1263,16 +1232,16 @@
         <v>9</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
@@ -1280,347 +1249,756 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
+      <c r="D6" s="1">
+        <v>1</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="H6" s="1">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="I6" s="1">
         <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
+      <c r="D7" s="1">
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>1001</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1">
-        <v>2000</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="H7" s="1">
-        <v>40000</v>
+        <v>100</v>
       </c>
       <c r="I7" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="J7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
         <v>15</v>
       </c>
-      <c r="E8" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3000</v>
-      </c>
       <c r="G8" s="1">
-        <v>40000</v>
+        <v>100</v>
       </c>
       <c r="H8" s="1">
-        <v>80000</v>
+        <v>100</v>
       </c>
       <c r="I8" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="J8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
+      <c r="D9" s="1">
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="G9" s="1">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="H9" s="1">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="I9" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="J9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>17</v>
+      <c r="D10" s="1">
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="G10" s="1">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="H10" s="1">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="I10" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="J10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C11" s="1">
         <v>6</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>18</v>
+      <c r="D11" s="1">
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="G11" s="1">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="H11" s="1">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="I11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="J11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C12" s="1">
         <v>7</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>19</v>
+      <c r="D12" s="1">
+        <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F12" s="1">
-        <v>100</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="G12" s="1">
+        <v>100</v>
+      </c>
+      <c r="H12" s="1">
+        <v>100</v>
       </c>
       <c r="I12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="J12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C13" s="1">
         <v>8</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>22</v>
+      <c r="D13" s="1">
+        <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F13" s="1">
-        <v>100</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="G13" s="1">
+        <v>100</v>
+      </c>
+      <c r="H13" s="1">
+        <v>100</v>
       </c>
       <c r="I13" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="J13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C14" s="1">
         <v>9</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>24</v>
+      <c r="D14" s="1">
+        <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F14" s="1">
-        <v>100</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="G14" s="1">
+        <v>100</v>
+      </c>
+      <c r="H14" s="1">
+        <v>100</v>
       </c>
       <c r="I14" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C15" s="1">
-        <v>10</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>100</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="J14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1"/>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C16" s="1">
-        <v>11</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>100</v>
-      </c>
-      <c r="G16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1">
+        <v>100</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C17" s="1">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2002</v>
+      </c>
+      <c r="G17" s="1">
+        <v>10</v>
+      </c>
+      <c r="H17" s="1">
+        <v>10</v>
+      </c>
+      <c r="I17" s="1">
+        <v>100</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C18" s="1">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1">
+        <v>100</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C19" s="1">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2003</v>
+      </c>
+      <c r="G19" s="1">
+        <v>10</v>
+      </c>
+      <c r="H19" s="1">
+        <v>10</v>
+      </c>
+      <c r="I19" s="1">
+        <v>100</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:10">
+      <c r="C20" s="1">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>34</v>
+      </c>
+      <c r="G20" s="1">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1">
+        <v>100</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:10">
+      <c r="C21" s="1">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2002</v>
+      </c>
+      <c r="G21" s="1">
+        <v>10</v>
+      </c>
+      <c r="H21" s="1">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1">
+        <v>100</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:10">
+      <c r="C22" s="1">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>7</v>
+      </c>
+      <c r="F22" s="2">
+        <v>35</v>
+      </c>
+      <c r="G22" s="1">
+        <v>10</v>
+      </c>
+      <c r="H22" s="1">
+        <v>10</v>
+      </c>
+      <c r="I22" s="1">
+        <v>100</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="7" t="s">
+    </row>
+    <row r="23" customHeight="1" spans="3:10">
+      <c r="C23" s="1">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>8</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2003</v>
+      </c>
+      <c r="G23" s="1">
+        <v>10</v>
+      </c>
+      <c r="H23" s="1">
+        <v>10</v>
+      </c>
+      <c r="I23" s="1">
+        <v>100</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:10">
+      <c r="C24" s="1">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>9</v>
+      </c>
+      <c r="F24" s="2">
+        <v>36</v>
+      </c>
+      <c r="G24" s="1">
+        <v>10</v>
+      </c>
+      <c r="H24" s="1">
+        <v>10</v>
+      </c>
+      <c r="I24" s="1">
+        <v>100</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:10">
+      <c r="C25" s="1">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>10</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2002</v>
+      </c>
+      <c r="G25" s="1">
+        <v>10</v>
+      </c>
+      <c r="H25" s="1">
+        <v>10</v>
+      </c>
+      <c r="I25" s="1">
+        <v>100</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:10">
+      <c r="C26" s="1">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2004</v>
+      </c>
+      <c r="G26" s="1">
+        <v>10</v>
+      </c>
+      <c r="H26" s="1">
+        <v>10</v>
+      </c>
+      <c r="I26" s="1">
+        <v>100</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:10">
+      <c r="C27" s="1">
         <v>21</v>
       </c>
-      <c r="I16" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C17" s="1">
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
         <v>12</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="F27" s="2">
+        <v>2003</v>
+      </c>
+      <c r="G27" s="1">
+        <v>10</v>
+      </c>
+      <c r="H27" s="1">
+        <v>10</v>
+      </c>
+      <c r="I27" s="1">
+        <v>100</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:10">
+      <c r="C28" s="1">
+        <v>22</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>13</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2005</v>
+      </c>
+      <c r="G28" s="1">
+        <v>10</v>
+      </c>
+      <c r="H28" s="1">
+        <v>10</v>
+      </c>
+      <c r="I28" s="1">
+        <v>100</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:10">
+      <c r="C29" s="1">
+        <v>23</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>14</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2002</v>
+      </c>
+      <c r="G29" s="1">
+        <v>10</v>
+      </c>
+      <c r="H29" s="1">
+        <v>10</v>
+      </c>
+      <c r="I29" s="1">
+        <v>100</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:10">
+      <c r="C30" s="1">
+        <v>24</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>15</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2006</v>
+      </c>
+      <c r="G30" s="1">
+        <v>10</v>
+      </c>
+      <c r="H30" s="1">
+        <v>10</v>
+      </c>
+      <c r="I30" s="1">
+        <v>100</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:10">
+      <c r="C31" s="1">
+        <v>25</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>16</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2003</v>
+      </c>
+      <c r="G31" s="1">
+        <v>10</v>
+      </c>
+      <c r="H31" s="1">
+        <v>10</v>
+      </c>
+      <c r="I31" s="1">
+        <v>100</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:10">
+      <c r="C32" s="1">
+        <v>26</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>17</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2001</v>
+      </c>
+      <c r="G32" s="1">
+        <v>10</v>
+      </c>
+      <c r="H32" s="1">
+        <v>10</v>
+      </c>
+      <c r="I32" s="1">
+        <v>100</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:10">
+      <c r="C33" s="1">
         <v>27</v>
       </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>100</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:4">
-      <c r="C18" s="1">
-        <v>13</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>18</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2002</v>
+      </c>
+      <c r="G33" s="1">
+        <v>10</v>
+      </c>
+      <c r="H33" s="1">
+        <v>10</v>
+      </c>
+      <c r="I33" s="1">
+        <v>100</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:10">
+      <c r="C34" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="3:4">
-      <c r="C19" s="1">
-        <v>14</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>19</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2010</v>
+      </c>
+      <c r="G34" s="1">
+        <v>10</v>
+      </c>
+      <c r="H34" s="1">
+        <v>10</v>
+      </c>
+      <c r="I34" s="1">
+        <v>100</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:10">
+      <c r="C35" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:4">
-      <c r="C20" s="1">
-        <v>15</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:4">
-      <c r="C21" s="1">
-        <v>16</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:4">
-      <c r="C22" s="1">
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>20</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2003</v>
+      </c>
+      <c r="G35" s="1">
+        <v>10</v>
+      </c>
+      <c r="H35" s="1">
+        <v>10</v>
+      </c>
+      <c r="I35" s="1">
+        <v>100</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:4">
-      <c r="C23" s="1">
-        <v>18</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:4">
-      <c r="C24" s="1">
-        <v>19</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:4">
-      <c r="C25" s="1">
-        <v>20</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="7:7">
-      <c r="G29" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1628,20 +2006,6 @@
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="D6" r:id="rId3" display="手太阴" tooltip="https://baike.baidu.com/item/%E6%89%8B%E5%A4%AA%E9%98%B4%E8%82%BA%E7%BB%8F/7077192?fromModule=lemma_inlink"/>
-    <hyperlink ref="D7" r:id="rId4" display="手阳明" tooltip="https://baike.baidu.com/item/%E6%89%8B%E9%98%B3%E6%98%8E%E5%A4%A7%E8%82%A0%E7%BB%8F/7077565?fromModule=lemma_inlink"/>
-    <hyperlink ref="D8" r:id="rId5" display="足阳明" tooltip="https://baike.baidu.com/item/%E8%B6%B3%E9%98%B3%E6%98%8E%E8%83%83%E7%BB%8F/1708815?fromModule=lemma_inlink"/>
-    <hyperlink ref="D9" r:id="rId6" display="足太阴" tooltip="https://baike.baidu.com/item/%E8%B6%B3%E5%A4%AA%E9%98%B4%E8%84%BE%E7%BB%8F/1708873?fromModule=lemma_inlink"/>
-    <hyperlink ref="D10" r:id="rId7" display="手少阴" tooltip="https://baike.baidu.com/item/%E6%89%8B%E5%B0%91%E9%98%B4%E5%BF%83%E7%BB%8F/7077621?fromModule=lemma_inlink"/>
-    <hyperlink ref="D11" r:id="rId8" display="手太阳" tooltip="https://baike.baidu.com/item/%E6%89%8B%E5%A4%AA%E9%98%B3%E5%B0%8F%E8%82%A0%E7%BB%8F/5892466?fromModule=lemma_inlink"/>
-    <hyperlink ref="D12" r:id="rId9" display="足太阳" tooltip="https://baike.baidu.com/item/%E8%B6%B3%E5%A4%AA%E9%98%B3%E8%86%80%E8%83%B1%E7%BB%8F/1225387?fromModule=lemma_inlink"/>
-    <hyperlink ref="D13" r:id="rId10" display="足少阴" tooltip="https://baike.baidu.com/item/%E8%B6%B3%E5%B0%91%E9%98%B4%E8%82%BE%E7%BB%8F/1708893?fromModule=lemma_inlink"/>
-    <hyperlink ref="D14" r:id="rId11" display="手厥阴" tooltip="https://baike.baidu.com/item/%E6%89%8B%E5%8E%A5%E9%98%B4%E5%BF%83%E5%8C%85%E7%BB%9C%E7%BB%8F/12591484?fromModule=lemma_inlink"/>
-    <hyperlink ref="D15" r:id="rId12" display="手少阳" tooltip="https://baike.baidu.com/item/%E6%89%8B%E5%B0%91%E9%98%B3%E4%B8%89%E7%84%A6%E7%BB%8F/7077716?fromModule=lemma_inlink"/>
-    <hyperlink ref="D16" r:id="rId13" display="足少阳" tooltip="https://baike.baidu.com/item/%E8%B6%B3%E5%B0%91%E9%98%B3%E8%83%86%E7%BB%8F/1708930?fromModule=lemma_inlink"/>
-    <hyperlink ref="D17" r:id="rId14" display="足厥阴" tooltip="https://baike.baidu.com/item/%E8%B6%B3%E5%8E%A5%E9%98%B4%E8%82%9D%E7%BB%8F/1709014?fromModule=lemma_inlink"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>

--- a/Excel/PillConfig.xlsx
+++ b/Excel/PillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -78,7 +78,7 @@
     <t>AttrValue</t>
   </si>
   <si>
-    <t>AttrRise</t>
+    <t>AttrTotal</t>
   </si>
   <si>
     <t>FeeRise</t>
@@ -1115,8 +1115,8 @@
   <sheetPr/>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1262,7 +1262,8 @@
         <v>100</v>
       </c>
       <c r="H6" s="1">
-        <v>100</v>
+        <f t="shared" ref="H6:H14" si="0">G6*200</f>
+        <v>20000</v>
       </c>
       <c r="I6" s="1">
         <v>10</v>
@@ -1288,7 +1289,8 @@
         <v>100</v>
       </c>
       <c r="H7" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>20000</v>
       </c>
       <c r="I7" s="1">
         <v>10</v>
@@ -1314,7 +1316,8 @@
         <v>100</v>
       </c>
       <c r="H8" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>20000</v>
       </c>
       <c r="I8" s="1">
         <v>10</v>
@@ -1340,7 +1343,8 @@
         <v>100</v>
       </c>
       <c r="H9" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>20000</v>
       </c>
       <c r="I9" s="1">
         <v>10</v>
@@ -1366,7 +1370,8 @@
         <v>100</v>
       </c>
       <c r="H10" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>20000</v>
       </c>
       <c r="I10" s="1">
         <v>10</v>
@@ -1392,7 +1397,8 @@
         <v>100</v>
       </c>
       <c r="H11" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>20000</v>
       </c>
       <c r="I11" s="1">
         <v>10</v>
@@ -1418,7 +1424,8 @@
         <v>100</v>
       </c>
       <c r="H12" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>20000</v>
       </c>
       <c r="I12" s="1">
         <v>10</v>
@@ -1444,7 +1451,8 @@
         <v>100</v>
       </c>
       <c r="H13" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>20000</v>
       </c>
       <c r="I13" s="1">
         <v>10</v>
@@ -1470,7 +1478,8 @@
         <v>100</v>
       </c>
       <c r="H14" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>20000</v>
       </c>
       <c r="I14" s="1">
         <v>10</v>
@@ -1488,7 +1497,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>7</v>
@@ -1497,7 +1506,8 @@
         <v>10</v>
       </c>
       <c r="H16" s="1">
-        <v>10</v>
+        <f t="shared" ref="H16:H35" si="1">G16*10</f>
+        <v>100</v>
       </c>
       <c r="I16" s="1">
         <v>100</v>
@@ -1514,7 +1524,8 @@
         <v>2</v>
       </c>
       <c r="E17" s="1">
-        <v>2</v>
+        <f t="shared" ref="E17:E35" si="2">E16+100</f>
+        <v>100</v>
       </c>
       <c r="F17" s="1">
         <v>2002</v>
@@ -1523,7 +1534,8 @@
         <v>10</v>
       </c>
       <c r="H17" s="1">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="I17" s="1">
         <v>100</v>
@@ -1540,7 +1552,8 @@
         <v>2</v>
       </c>
       <c r="E18" s="1">
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="F18" s="1">
         <v>12</v>
@@ -1549,7 +1562,8 @@
         <v>10</v>
       </c>
       <c r="H18" s="1">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="I18" s="1">
         <v>100</v>
@@ -1566,7 +1580,8 @@
         <v>2</v>
       </c>
       <c r="E19" s="1">
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
       <c r="F19" s="1">
         <v>2003</v>
@@ -1575,7 +1590,8 @@
         <v>10</v>
       </c>
       <c r="H19" s="1">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="I19" s="1">
         <v>100</v>
@@ -1592,7 +1608,8 @@
         <v>2</v>
       </c>
       <c r="E20" s="1">
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>400</v>
       </c>
       <c r="F20" s="2">
         <v>34</v>
@@ -1601,7 +1618,8 @@
         <v>10</v>
       </c>
       <c r="H20" s="1">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="I20" s="1">
         <v>100</v>
@@ -1618,7 +1636,8 @@
         <v>2</v>
       </c>
       <c r="E21" s="1">
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>500</v>
       </c>
       <c r="F21" s="2">
         <v>2002</v>
@@ -1627,7 +1646,8 @@
         <v>10</v>
       </c>
       <c r="H21" s="1">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="I21" s="1">
         <v>100</v>
@@ -1644,7 +1664,8 @@
         <v>2</v>
       </c>
       <c r="E22" s="1">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>600</v>
       </c>
       <c r="F22" s="2">
         <v>35</v>
@@ -1653,7 +1674,8 @@
         <v>10</v>
       </c>
       <c r="H22" s="1">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="I22" s="1">
         <v>100</v>
@@ -1670,7 +1692,8 @@
         <v>2</v>
       </c>
       <c r="E23" s="1">
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>700</v>
       </c>
       <c r="F23" s="2">
         <v>2003</v>
@@ -1679,7 +1702,8 @@
         <v>10</v>
       </c>
       <c r="H23" s="1">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="I23" s="1">
         <v>100</v>
@@ -1696,7 +1720,8 @@
         <v>2</v>
       </c>
       <c r="E24" s="1">
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>800</v>
       </c>
       <c r="F24" s="2">
         <v>36</v>
@@ -1705,7 +1730,8 @@
         <v>10</v>
       </c>
       <c r="H24" s="1">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="I24" s="1">
         <v>100</v>
@@ -1722,7 +1748,8 @@
         <v>2</v>
       </c>
       <c r="E25" s="1">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>900</v>
       </c>
       <c r="F25" s="2">
         <v>2002</v>
@@ -1731,7 +1758,8 @@
         <v>10</v>
       </c>
       <c r="H25" s="1">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="I25" s="1">
         <v>100</v>
@@ -1748,7 +1776,8 @@
         <v>2</v>
       </c>
       <c r="E26" s="1">
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>1000</v>
       </c>
       <c r="F26" s="2">
         <v>2004</v>
@@ -1757,7 +1786,8 @@
         <v>10</v>
       </c>
       <c r="H26" s="1">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="I26" s="1">
         <v>100</v>
@@ -1774,7 +1804,8 @@
         <v>2</v>
       </c>
       <c r="E27" s="1">
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>1100</v>
       </c>
       <c r="F27" s="2">
         <v>2003</v>
@@ -1783,7 +1814,8 @@
         <v>10</v>
       </c>
       <c r="H27" s="1">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="I27" s="1">
         <v>100</v>
@@ -1800,7 +1832,8 @@
         <v>2</v>
       </c>
       <c r="E28" s="1">
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>1200</v>
       </c>
       <c r="F28" s="2">
         <v>2005</v>
@@ -1809,7 +1842,8 @@
         <v>10</v>
       </c>
       <c r="H28" s="1">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="I28" s="1">
         <v>100</v>
@@ -1826,7 +1860,8 @@
         <v>2</v>
       </c>
       <c r="E29" s="1">
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>1300</v>
       </c>
       <c r="F29" s="2">
         <v>2002</v>
@@ -1835,7 +1870,8 @@
         <v>10</v>
       </c>
       <c r="H29" s="1">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="I29" s="1">
         <v>100</v>
@@ -1852,7 +1888,8 @@
         <v>2</v>
       </c>
       <c r="E30" s="1">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>1400</v>
       </c>
       <c r="F30" s="2">
         <v>2006</v>
@@ -1861,7 +1898,8 @@
         <v>10</v>
       </c>
       <c r="H30" s="1">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="I30" s="1">
         <v>100</v>
@@ -1878,7 +1916,8 @@
         <v>2</v>
       </c>
       <c r="E31" s="1">
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>1500</v>
       </c>
       <c r="F31" s="2">
         <v>2003</v>
@@ -1887,7 +1926,8 @@
         <v>10</v>
       </c>
       <c r="H31" s="1">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="I31" s="1">
         <v>100</v>
@@ -1904,7 +1944,8 @@
         <v>2</v>
       </c>
       <c r="E32" s="1">
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>1600</v>
       </c>
       <c r="F32" s="2">
         <v>2001</v>
@@ -1913,7 +1954,8 @@
         <v>10</v>
       </c>
       <c r="H32" s="1">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="I32" s="1">
         <v>100</v>
@@ -1930,7 +1972,8 @@
         <v>2</v>
       </c>
       <c r="E33" s="1">
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>1700</v>
       </c>
       <c r="F33" s="2">
         <v>2002</v>
@@ -1939,7 +1982,8 @@
         <v>10</v>
       </c>
       <c r="H33" s="1">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="I33" s="1">
         <v>100</v>
@@ -1956,7 +2000,8 @@
         <v>2</v>
       </c>
       <c r="E34" s="1">
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>1800</v>
       </c>
       <c r="F34" s="2">
         <v>2010</v>
@@ -1965,7 +2010,8 @@
         <v>10</v>
       </c>
       <c r="H34" s="1">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="I34" s="1">
         <v>100</v>
@@ -1982,7 +2028,8 @@
         <v>2</v>
       </c>
       <c r="E35" s="1">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>1900</v>
       </c>
       <c r="F35" s="2">
         <v>2003</v>
@@ -1991,7 +2038,8 @@
         <v>10</v>
       </c>
       <c r="H35" s="1">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="I35" s="1">
         <v>100</v>

--- a/Excel/PillConfig.xlsx
+++ b/Excel/PillConfig.xlsx
@@ -1116,7 +1116,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1612,7 +1612,7 @@
         <v>400</v>
       </c>
       <c r="F20" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" s="1">
         <v>10</v>
@@ -1668,7 +1668,7 @@
         <v>600</v>
       </c>
       <c r="F22" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" s="1">
         <v>10</v>
@@ -1724,7 +1724,7 @@
         <v>800</v>
       </c>
       <c r="F24" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" s="1">
         <v>10</v>

--- a/Excel/PillConfig.xlsx
+++ b/Excel/PillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>AttrValue</t>
-  </si>
-  <si>
-    <t>AttrTotal</t>
   </si>
   <si>
     <t>FeeRise</t>
@@ -321,12 +318,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1113,10 +1110,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="H6" sqref="H6:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1127,36 +1124,33 @@
     <col min="4" max="5" width="12.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="14.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="34.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:13">
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:13">
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1177,21 +1171,18 @@
       <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:13">
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1208,44 +1199,38 @@
       <c r="H4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:13">
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:10">
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1262,17 +1247,13 @@
         <v>100</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" ref="H6:H14" si="0">G6*200</f>
-        <v>20000</v>
-      </c>
-      <c r="I6" s="1">
-        <v>10</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:10">
+        <v>100</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1289,17 +1270,13 @@
         <v>100</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="I7" s="1">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:10">
+        <v>100</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1316,17 +1293,13 @@
         <v>100</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="I8" s="1">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:10">
+        <v>100</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1343,17 +1316,13 @@
         <v>100</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="I9" s="1">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:10">
+        <v>100</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -1370,17 +1339,13 @@
         <v>100</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="I10" s="1">
-        <v>10</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:10">
+        <v>100</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1397,17 +1362,13 @@
         <v>100</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="I11" s="1">
-        <v>10</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:10">
+        <v>100</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C12" s="1">
         <v>7</v>
       </c>
@@ -1424,17 +1385,13 @@
         <v>100</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="I12" s="1">
-        <v>10</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:10">
+        <v>100</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C13" s="1">
         <v>8</v>
       </c>
@@ -1451,17 +1408,13 @@
         <v>100</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="I13" s="1">
-        <v>10</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="3:10">
+        <v>100</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -1478,18 +1431,14 @@
         <v>100</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="I14" s="1">
-        <v>10</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>12</v>
+        <v>100</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1"/>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:10">
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C16" s="1">
         <v>10</v>
       </c>
@@ -1506,17 +1455,13 @@
         <v>10</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" ref="H16:H35" si="1">G16*10</f>
-        <v>100</v>
-      </c>
-      <c r="I16" s="1">
-        <v>100</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="3:10">
+        <v>5000</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C17" s="1">
         <v>11</v>
       </c>
@@ -1524,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" ref="E17:E35" si="2">E16+100</f>
+        <f t="shared" ref="E17:E35" si="0">E16+100</f>
         <v>100</v>
       </c>
       <c r="F17" s="1">
@@ -1534,17 +1479,13 @@
         <v>10</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I17" s="1">
-        <v>100</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:10">
+        <v>5000</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C18" s="1">
         <v>12</v>
       </c>
@@ -1552,7 +1493,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="F18" s="1">
@@ -1562,17 +1503,13 @@
         <v>10</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I18" s="1">
-        <v>100</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:10">
+        <v>5000</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:9">
       <c r="C19" s="1">
         <v>13</v>
       </c>
@@ -1580,7 +1517,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="F19" s="1">
@@ -1590,17 +1527,13 @@
         <v>10</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I19" s="1">
-        <v>100</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:10">
+        <v>5000</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:9">
       <c r="C20" s="1">
         <v>14</v>
       </c>
@@ -1608,7 +1541,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="F20" s="2">
@@ -1618,17 +1551,13 @@
         <v>10</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I20" s="1">
-        <v>100</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:10">
+        <v>5000</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:9">
       <c r="C21" s="1">
         <v>15</v>
       </c>
@@ -1636,7 +1565,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="F21" s="2">
@@ -1646,17 +1575,13 @@
         <v>10</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I21" s="1">
-        <v>100</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:10">
+        <v>5000</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:9">
       <c r="C22" s="1">
         <v>16</v>
       </c>
@@ -1664,7 +1589,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="F22" s="2">
@@ -1674,17 +1599,13 @@
         <v>10</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I22" s="1">
-        <v>100</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:10">
+        <v>5000</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:9">
       <c r="C23" s="1">
         <v>17</v>
       </c>
@@ -1692,7 +1613,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>700</v>
       </c>
       <c r="F23" s="2">
@@ -1702,17 +1623,13 @@
         <v>10</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I23" s="1">
-        <v>100</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:10">
+        <v>5000</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:9">
       <c r="C24" s="1">
         <v>18</v>
       </c>
@@ -1720,7 +1637,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="F24" s="2">
@@ -1730,17 +1647,13 @@
         <v>10</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I24" s="1">
-        <v>100</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:10">
+        <v>5000</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:9">
       <c r="C25" s="1">
         <v>19</v>
       </c>
@@ -1748,7 +1661,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="F25" s="2">
@@ -1758,17 +1671,13 @@
         <v>10</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I25" s="1">
-        <v>100</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:10">
+        <v>5000</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:9">
       <c r="C26" s="1">
         <v>20</v>
       </c>
@@ -1776,7 +1685,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="F26" s="2">
@@ -1786,17 +1695,13 @@
         <v>10</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I26" s="1">
-        <v>100</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:10">
+        <v>5000</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:9">
       <c r="C27" s="1">
         <v>21</v>
       </c>
@@ -1804,7 +1709,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1100</v>
       </c>
       <c r="F27" s="2">
@@ -1814,17 +1719,13 @@
         <v>10</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I27" s="1">
-        <v>100</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="3:10">
+        <v>5000</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:9">
       <c r="C28" s="1">
         <v>22</v>
       </c>
@@ -1832,7 +1733,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
       <c r="F28" s="2">
@@ -1842,17 +1743,13 @@
         <v>10</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I28" s="1">
-        <v>100</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:10">
+        <v>5000</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:9">
       <c r="C29" s="1">
         <v>23</v>
       </c>
@@ -1860,7 +1757,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1300</v>
       </c>
       <c r="F29" s="2">
@@ -1870,17 +1767,13 @@
         <v>10</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I29" s="1">
-        <v>100</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="3:10">
+        <v>5000</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:9">
       <c r="C30" s="1">
         <v>24</v>
       </c>
@@ -1888,7 +1781,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1400</v>
       </c>
       <c r="F30" s="2">
@@ -1898,17 +1791,13 @@
         <v>10</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I30" s="1">
-        <v>100</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="3:10">
+        <v>5000</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:9">
       <c r="C31" s="1">
         <v>25</v>
       </c>
@@ -1916,7 +1805,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="F31" s="2">
@@ -1926,17 +1815,13 @@
         <v>10</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I31" s="1">
-        <v>100</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="3:10">
+        <v>5000</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:9">
       <c r="C32" s="1">
         <v>26</v>
       </c>
@@ -1944,7 +1829,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1600</v>
       </c>
       <c r="F32" s="2">
@@ -1954,17 +1839,13 @@
         <v>10</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I32" s="1">
-        <v>100</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="3:10">
+        <v>5000</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:9">
       <c r="C33" s="1">
         <v>27</v>
       </c>
@@ -1972,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1700</v>
       </c>
       <c r="F33" s="2">
@@ -1982,17 +1863,13 @@
         <v>10</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I33" s="1">
-        <v>100</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="3:10">
+        <v>5000</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:9">
       <c r="C34" s="1">
         <v>28</v>
       </c>
@@ -2000,7 +1877,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1800</v>
       </c>
       <c r="F34" s="2">
@@ -2010,17 +1887,13 @@
         <v>10</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I34" s="1">
-        <v>100</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:10">
+        <v>5000</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:9">
       <c r="C35" s="1">
         <v>29</v>
       </c>
@@ -2028,7 +1901,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1900</v>
       </c>
       <c r="F35" s="2">
@@ -2038,19 +1911,15 @@
         <v>10</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I35" s="1">
-        <v>100</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>17</v>
+        <v>5000</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 D4 E4 F4 G4 H4 I4 D5 E5 F5 G5 H5 I5 C3:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 D4 E4 F4 G4 H4 D5 E5 F5 G5 H5 C3:C5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/PillConfig.xlsx
+++ b/Excel/PillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -318,12 +318,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H36"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1247,7 +1247,7 @@
         <v>100</v>
       </c>
       <c r="H6" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>9</v>
@@ -1270,7 +1270,7 @@
         <v>100</v>
       </c>
       <c r="H7" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>10</v>
@@ -1293,7 +1293,7 @@
         <v>100</v>
       </c>
       <c r="H8" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>11</v>
@@ -1316,7 +1316,7 @@
         <v>100</v>
       </c>
       <c r="H9" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>12</v>
@@ -1339,7 +1339,7 @@
         <v>100</v>
       </c>
       <c r="H10" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>13</v>
@@ -1362,7 +1362,7 @@
         <v>100</v>
       </c>
       <c r="H11" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>14</v>
@@ -1385,7 +1385,7 @@
         <v>100</v>
       </c>
       <c r="H12" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>9</v>
@@ -1408,7 +1408,7 @@
         <v>100</v>
       </c>
       <c r="H13" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>10</v>
@@ -1431,7 +1431,7 @@
         <v>100</v>
       </c>
       <c r="H14" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>11</v>
@@ -1455,7 +1455,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>15</v>
@@ -1479,7 +1479,7 @@
         <v>10</v>
       </c>
       <c r="H17" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>16</v>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>17</v>
@@ -1527,7 +1527,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>18</v>
@@ -1551,7 +1551,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>19</v>
@@ -1575,7 +1575,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>16</v>
@@ -1599,7 +1599,7 @@
         <v>10</v>
       </c>
       <c r="H22" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>20</v>
@@ -1623,7 +1623,7 @@
         <v>10</v>
       </c>
       <c r="H23" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>18</v>
@@ -1647,7 +1647,7 @@
         <v>10</v>
       </c>
       <c r="H24" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>21</v>
@@ -1671,7 +1671,7 @@
         <v>10</v>
       </c>
       <c r="H25" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>16</v>
@@ -1695,7 +1695,7 @@
         <v>10</v>
       </c>
       <c r="H26" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>22</v>
@@ -1719,7 +1719,7 @@
         <v>10</v>
       </c>
       <c r="H27" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>18</v>
@@ -1743,7 +1743,7 @@
         <v>10</v>
       </c>
       <c r="H28" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>23</v>
@@ -1767,7 +1767,7 @@
         <v>10</v>
       </c>
       <c r="H29" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>16</v>
@@ -1791,7 +1791,7 @@
         <v>10</v>
       </c>
       <c r="H30" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>24</v>
@@ -1815,7 +1815,7 @@
         <v>10</v>
       </c>
       <c r="H31" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>18</v>
@@ -1839,7 +1839,7 @@
         <v>10</v>
       </c>
       <c r="H32" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>25</v>
@@ -1863,7 +1863,7 @@
         <v>10</v>
       </c>
       <c r="H33" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>18</v>
@@ -1887,7 +1887,7 @@
         <v>10</v>
       </c>
       <c r="H34" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>26</v>
@@ -1911,7 +1911,7 @@
         <v>10</v>
       </c>
       <c r="H35" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>16</v>

--- a/Excel/PillConfig.xlsx
+++ b/Excel/PillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H16" sqref="H16:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1247,7 +1247,7 @@
         <v>100</v>
       </c>
       <c r="H6" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>9</v>
@@ -1270,7 +1270,7 @@
         <v>100</v>
       </c>
       <c r="H7" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>10</v>
@@ -1293,7 +1293,7 @@
         <v>100</v>
       </c>
       <c r="H8" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>11</v>
@@ -1316,7 +1316,7 @@
         <v>100</v>
       </c>
       <c r="H9" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>12</v>
@@ -1339,7 +1339,7 @@
         <v>100</v>
       </c>
       <c r="H10" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>13</v>
@@ -1362,7 +1362,7 @@
         <v>100</v>
       </c>
       <c r="H11" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>14</v>
@@ -1385,7 +1385,7 @@
         <v>100</v>
       </c>
       <c r="H12" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>9</v>
@@ -1408,7 +1408,7 @@
         <v>100</v>
       </c>
       <c r="H13" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>10</v>
@@ -1431,7 +1431,7 @@
         <v>100</v>
       </c>
       <c r="H14" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>11</v>
@@ -1455,7 +1455,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>15</v>
@@ -1479,7 +1479,7 @@
         <v>10</v>
       </c>
       <c r="H17" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>16</v>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>17</v>
@@ -1527,7 +1527,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>18</v>
@@ -1551,7 +1551,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>19</v>
@@ -1575,7 +1575,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>16</v>
@@ -1599,7 +1599,7 @@
         <v>10</v>
       </c>
       <c r="H22" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>20</v>
@@ -1623,7 +1623,7 @@
         <v>10</v>
       </c>
       <c r="H23" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>18</v>
@@ -1647,7 +1647,7 @@
         <v>10</v>
       </c>
       <c r="H24" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>21</v>
@@ -1671,7 +1671,7 @@
         <v>10</v>
       </c>
       <c r="H25" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>16</v>
@@ -1695,7 +1695,7 @@
         <v>10</v>
       </c>
       <c r="H26" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>22</v>
@@ -1719,7 +1719,7 @@
         <v>10</v>
       </c>
       <c r="H27" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>18</v>
@@ -1743,7 +1743,7 @@
         <v>10</v>
       </c>
       <c r="H28" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>23</v>
@@ -1767,7 +1767,7 @@
         <v>10</v>
       </c>
       <c r="H29" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>16</v>
@@ -1791,7 +1791,7 @@
         <v>10</v>
       </c>
       <c r="H30" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>24</v>
@@ -1815,7 +1815,7 @@
         <v>10</v>
       </c>
       <c r="H31" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>18</v>
@@ -1839,7 +1839,7 @@
         <v>10</v>
       </c>
       <c r="H32" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>25</v>
@@ -1863,7 +1863,7 @@
         <v>10</v>
       </c>
       <c r="H33" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>18</v>
@@ -1887,7 +1887,7 @@
         <v>10</v>
       </c>
       <c r="H34" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>26</v>
@@ -1911,7 +1911,7 @@
         <v>10</v>
       </c>
       <c r="H35" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>16</v>

--- a/Excel/PillConfig.xlsx
+++ b/Excel/PillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1112,7 +1112,7 @@
   <sheetPr/>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
       <selection activeCell="H16" sqref="H16:H35"/>
     </sheetView>
   </sheetViews>
@@ -1247,7 +1247,7 @@
         <v>100</v>
       </c>
       <c r="H6" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>9</v>
@@ -1270,7 +1270,7 @@
         <v>100</v>
       </c>
       <c r="H7" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>10</v>
@@ -1293,7 +1293,7 @@
         <v>100</v>
       </c>
       <c r="H8" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>11</v>
@@ -1316,7 +1316,7 @@
         <v>100</v>
       </c>
       <c r="H9" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>12</v>
@@ -1339,7 +1339,7 @@
         <v>100</v>
       </c>
       <c r="H10" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>13</v>
@@ -1362,7 +1362,7 @@
         <v>100</v>
       </c>
       <c r="H11" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>14</v>
@@ -1385,7 +1385,7 @@
         <v>100</v>
       </c>
       <c r="H12" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>9</v>
@@ -1408,7 +1408,7 @@
         <v>100</v>
       </c>
       <c r="H13" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>10</v>
@@ -1431,7 +1431,7 @@
         <v>100</v>
       </c>
       <c r="H14" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>11</v>
@@ -1455,7 +1455,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>15</v>
@@ -1479,7 +1479,7 @@
         <v>10</v>
       </c>
       <c r="H17" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>16</v>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>17</v>
@@ -1527,7 +1527,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>18</v>
@@ -1551,7 +1551,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>19</v>
@@ -1575,7 +1575,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>16</v>
@@ -1599,7 +1599,7 @@
         <v>10</v>
       </c>
       <c r="H22" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>20</v>
@@ -1623,7 +1623,7 @@
         <v>10</v>
       </c>
       <c r="H23" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>18</v>
@@ -1647,7 +1647,7 @@
         <v>10</v>
       </c>
       <c r="H24" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>21</v>
@@ -1671,7 +1671,7 @@
         <v>10</v>
       </c>
       <c r="H25" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>16</v>
@@ -1695,7 +1695,7 @@
         <v>10</v>
       </c>
       <c r="H26" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>22</v>
@@ -1719,7 +1719,7 @@
         <v>10</v>
       </c>
       <c r="H27" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>18</v>
@@ -1743,7 +1743,7 @@
         <v>10</v>
       </c>
       <c r="H28" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>23</v>
@@ -1767,7 +1767,7 @@
         <v>10</v>
       </c>
       <c r="H29" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>16</v>
@@ -1791,7 +1791,7 @@
         <v>10</v>
       </c>
       <c r="H30" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>24</v>
@@ -1815,7 +1815,7 @@
         <v>10</v>
       </c>
       <c r="H31" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>18</v>
@@ -1839,7 +1839,7 @@
         <v>10</v>
       </c>
       <c r="H32" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>25</v>
@@ -1863,7 +1863,7 @@
         <v>10</v>
       </c>
       <c r="H33" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>18</v>
@@ -1887,7 +1887,7 @@
         <v>10</v>
       </c>
       <c r="H34" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>26</v>
@@ -1911,7 +1911,7 @@
         <v>10</v>
       </c>
       <c r="H35" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>16</v>

--- a/Excel/PillConfig.xlsx
+++ b/Excel/PillConfig.xlsx
@@ -318,12 +318,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:H35"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1247,7 +1247,7 @@
         <v>100</v>
       </c>
       <c r="H6" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>9</v>
@@ -1270,7 +1270,7 @@
         <v>100</v>
       </c>
       <c r="H7" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>10</v>
@@ -1293,7 +1293,7 @@
         <v>100</v>
       </c>
       <c r="H8" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>11</v>
@@ -1316,7 +1316,7 @@
         <v>100</v>
       </c>
       <c r="H9" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>12</v>
@@ -1339,7 +1339,7 @@
         <v>100</v>
       </c>
       <c r="H10" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>13</v>
@@ -1362,7 +1362,7 @@
         <v>100</v>
       </c>
       <c r="H11" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>14</v>
@@ -1385,7 +1385,7 @@
         <v>100</v>
       </c>
       <c r="H12" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>9</v>
@@ -1408,7 +1408,7 @@
         <v>100</v>
       </c>
       <c r="H13" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>10</v>
@@ -1431,7 +1431,7 @@
         <v>100</v>
       </c>
       <c r="H14" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>11</v>
@@ -1455,7 +1455,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="1">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>15</v>
@@ -1479,7 +1479,7 @@
         <v>10</v>
       </c>
       <c r="H17" s="1">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>16</v>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="1">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>17</v>
@@ -1527,7 +1527,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="1">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>18</v>
@@ -1551,7 +1551,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="1">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>19</v>
@@ -1575,7 +1575,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="1">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>16</v>
@@ -1599,7 +1599,7 @@
         <v>10</v>
       </c>
       <c r="H22" s="1">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>20</v>
@@ -1623,7 +1623,7 @@
         <v>10</v>
       </c>
       <c r="H23" s="1">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>18</v>
@@ -1647,7 +1647,7 @@
         <v>10</v>
       </c>
       <c r="H24" s="1">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>21</v>
@@ -1671,7 +1671,7 @@
         <v>10</v>
       </c>
       <c r="H25" s="1">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>16</v>
@@ -1695,7 +1695,7 @@
         <v>10</v>
       </c>
       <c r="H26" s="1">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>22</v>
@@ -1719,7 +1719,7 @@
         <v>10</v>
       </c>
       <c r="H27" s="1">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>18</v>
@@ -1743,7 +1743,7 @@
         <v>10</v>
       </c>
       <c r="H28" s="1">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>23</v>
@@ -1767,7 +1767,7 @@
         <v>10</v>
       </c>
       <c r="H29" s="1">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>16</v>
@@ -1791,7 +1791,7 @@
         <v>10</v>
       </c>
       <c r="H30" s="1">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>24</v>
@@ -1815,7 +1815,7 @@
         <v>10</v>
       </c>
       <c r="H31" s="1">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>18</v>
@@ -1839,7 +1839,7 @@
         <v>10</v>
       </c>
       <c r="H32" s="1">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>25</v>
@@ -1863,7 +1863,7 @@
         <v>10</v>
       </c>
       <c r="H33" s="1">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>18</v>
@@ -1887,7 +1887,7 @@
         <v>10</v>
       </c>
       <c r="H34" s="1">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>26</v>
@@ -1911,7 +1911,7 @@
         <v>10</v>
       </c>
       <c r="H35" s="1">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>16</v>
